--- a/Mitai - NearField_PCB_Probes/E-Field-Near-Filed Probe/Documents_Mi-tai/Assembly/Pick Place/Pick Place for Near-E-Field-Probe - JLCPCB.xlsx
+++ b/Mitai - NearField_PCB_Probes/E-Field-Near-Filed Probe/Documents_Mi-tai/Assembly/Pick Place/Pick Place for Near-E-Field-Probe - JLCPCB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\EE-PCB-Marketing\Mitai - NearField_PCB_Probes\E-Field-Near-Filed Probe\Documents\Assembly\Pick Place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\EE-PCB-Marketing\Mitai - NearField_PCB_Probes\E-Field-Near-Filed Probe\Documents_Mi-tai\Assembly\Pick Place\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54EC4B-1A21-4E31-9A0F-697A7C744D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF37A8-F0D0-4C66-AB8C-4252FEAF151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="4905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>88.4372mm</t>
   </si>
   <si>
-    <t>60.198mm</t>
+    <t>60.1980mm</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
